--- a/testRunner/GetReport.xlsx
+++ b/testRunner/GetReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -35,18 +35,6 @@
     <t>测试日期</t>
   </si>
   <si>
-    <t>'monkneyTest'</t>
-  </si>
-  <si>
-    <t>0M</t>
-  </si>
-  <si>
-    <t>'1.0'</t>
-  </si>
-  <si>
-    <t>2016-12-05 10:29 AM</t>
-  </si>
-  <si>
     <t>用例总数</t>
   </si>
   <si>
@@ -59,9 +47,6 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>34秒</t>
-  </si>
-  <si>
     <t>脚本语言</t>
   </si>
   <si>
@@ -101,47 +86,6 @@
     <t>FPS峰值</t>
   </si>
   <si>
-    <t>Honor_msm8909_android_5.1.1</t>
-  </si>
-  <si>
-    <t>1914M</t>
-  </si>
-  <si>
-    <t>4核</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 720x1280
-</t>
-  </si>
-  <si>
-    <t>7%</t>
-  </si>
-  <si>
-    <t>12M</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>Huawei_H60-L02_android_4.4.2</t>
-  </si>
-  <si>
-    <t>3014M</t>
-  </si>
-  <si>
-    <t>8核</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1080x1920
-</t>
-  </si>
-  <si>
     <t>测试详情</t>
   </si>
   <si>
@@ -182,40 +126,13 @@
   </si>
   <si>
     <t>日志</t>
-  </si>
-  <si>
-    <t>闪退测试</t>
-  </si>
-  <si>
-    <t>test_home_feed</t>
-  </si>
-  <si>
-    <t>失败</t>
-  </si>
-  <si>
-    <t>检查不到元素</t>
-  </si>
-  <si>
-    <t>闪退测试2</t>
-  </si>
-  <si>
-    <t>23M</t>
-  </si>
-  <si>
-    <t>4%</t>
-  </si>
-  <si>
-    <t>崩溃了</t>
-  </si>
-  <si>
-    <t>下载日志</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,15 +160,6 @@
       <b/>
       <sz val="18"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -298,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -312,9 +220,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -322,87 +227,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1219200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="test_home_feed_20161205103007_CheckPoint_NG.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7924800" y="571500"/>
-          <a:ext cx="685800" cy="1219200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="test_home_feed_20161205103013_CheckPoint_NG.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7924800" y="1962150"/>
-          <a:ext cx="1028700" cy="1828800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -690,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,48 +550,30 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -775,21 +581,15 @@
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1"/>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -803,99 +603,37 @@
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1">
       <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="30" customHeight="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
@@ -909,7 +647,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -917,7 +655,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="4" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -936,142 +674,56 @@
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="110" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1001</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" ht="110" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1002</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="30" customHeight="1"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="O4" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/testRunner/GetReport.xlsx
+++ b/testRunner/GetReport.xlsx
@@ -23,7 +23,7 @@
     <t>测试概括</t>
   </si>
   <si>
-    <t>APP名称</t>
+    <t>web名称</t>
   </si>
   <si>
     <t>APP大小</t>
